--- a/model/跨境电子进口保税订单模板.xlsx
+++ b/model/跨境电子进口保税订单模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\springboot_crossborder\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1717,10 +1717,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>申报地海关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>9009</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1857,6 +1853,10 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>口岸海关代码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2400,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2409,13 +2409,13 @@
         <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2480,31 +2480,31 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
@@ -2513,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
@@ -2525,16 +2525,16 @@
         <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>15</v>
@@ -2543,13 +2543,13 @@
         <v>13</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>3</v>
@@ -2558,37 +2558,37 @@
         <v>4</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
@@ -2597,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>7</v>
@@ -2619,13 +2619,13 @@
         <v>13</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>3</v>
@@ -2634,37 +2634,37 @@
         <v>4</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -2673,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
@@ -2685,11 +2685,11 @@
         <v>9</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
@@ -2699,13 +2699,13 @@
         <v>12</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>3</v>
@@ -2714,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB4" s="1"/>
     </row>

--- a/model/跨境电子进口保税订单模板.xlsx
+++ b/model/跨境电子进口保税订单模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="24120" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1620,153 +1620,153 @@
   </si>
   <si>
     <t>企业商品货号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>保价费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
     <t>50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
     <t>55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订购人身份证号码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品批次号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订购人注册号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订购人姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收货人姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收件地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>代扣税款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>企业商品名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品规格型号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计量单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电商平台名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订购人电话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收货人电话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>运杂费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>非现金抵扣金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单总净重</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单总毛重</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电商企业代码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电商企业名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电商企业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>贸易方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1210</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EM20190123</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>某平台名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>某平台名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>某平台名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>platformCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>物品01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>100.21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>100.22</t>
@@ -1776,23 +1776,23 @@
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>50kg/件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>wwe001</t>
@@ -1804,79 +1804,47 @@
     <t>wwe003</t>
   </si>
   <si>
-    <r>
-      <t>order201912346</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>order201912347</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>order201912345</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>businessCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ABC123</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>15991606911</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>口岸海关代码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order20190530001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order20190530002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order20190530003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2007,47 +1975,53 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2357,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2415,7 +2389,7 @@
         <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2438,16 +2412,16 @@
       <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -2480,7 +2454,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -2495,7 +2469,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>38</v>
@@ -2504,7 +2478,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
@@ -2513,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
@@ -2564,7 +2538,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -2579,7 +2553,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>38</v>
@@ -2588,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
@@ -2597,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>7</v>
@@ -2640,7 +2614,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -2655,7 +2629,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
@@ -2664,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -2673,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
@@ -2685,7 +2659,7 @@
         <v>9</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
@@ -3618,7 +3592,7 @@
       <c r="AB34" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
